--- a/OrcamentoPL.xlsx
+++ b/OrcamentoPL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\01701389\Desktop\OBA\Trabalhos\Fretes - Cliente final\Streamlit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\01701389\Streamlit\Simulador Frete Delivery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E02ABB6-EEFA-40F7-B85C-5EE02021A729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0257702B-54FD-43C1-BA2E-99AD19653BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{07CED625-BB70-4E0A-99DD-E048E77A1C12}"/>
   </bookViews>
@@ -37,42 +37,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>Janeiro</t>
-  </si>
-  <si>
-    <t>Fevereiro</t>
-  </si>
-  <si>
-    <t>Março</t>
-  </si>
-  <si>
-    <t>Abril</t>
-  </si>
-  <si>
-    <t>Maio</t>
-  </si>
-  <si>
-    <t>Junho</t>
-  </si>
-  <si>
-    <t>Julho</t>
-  </si>
-  <si>
-    <t>Agosto</t>
-  </si>
-  <si>
-    <t>Setembro</t>
-  </si>
-  <si>
-    <t>Outubro</t>
-  </si>
-  <si>
-    <t>Novembro</t>
-  </si>
-  <si>
-    <t>Dezembro</t>
-  </si>
-  <si>
     <t>Receita PL - Delivery</t>
   </si>
   <si>
@@ -80,6 +44,42 @@
   </si>
   <si>
     <t>Meses</t>
+  </si>
+  <si>
+    <t>janeiro</t>
+  </si>
+  <si>
+    <t>fevereiro</t>
+  </si>
+  <si>
+    <t>março</t>
+  </si>
+  <si>
+    <t>abril</t>
+  </si>
+  <si>
+    <t>maio</t>
+  </si>
+  <si>
+    <t>junho</t>
+  </si>
+  <si>
+    <t>julho</t>
+  </si>
+  <si>
+    <t>agosto</t>
+  </si>
+  <si>
+    <t>setembro</t>
+  </si>
+  <si>
+    <t>outubro</t>
+  </si>
+  <si>
+    <t>novembro</t>
+  </si>
+  <si>
+    <t>dezembro</t>
   </si>
 </sst>
 </file>
@@ -440,7 +440,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -452,13 +452,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -466,10 +466,10 @@
         <v>2022</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>6145239</v>
+        <v>6145241</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -477,7 +477,7 @@
         <v>2022</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>5174901</v>
@@ -488,10 +488,10 @@
         <v>2022</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>6332408</v>
+        <v>5901551</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -499,10 +499,10 @@
         <v>2022</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>7013117</v>
+        <v>4764146</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -510,7 +510,7 @@
         <v>2022</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>7162911</v>
@@ -521,7 +521,7 @@
         <v>2022</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>7107955</v>
@@ -532,7 +532,7 @@
         <v>2022</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>7219386</v>
@@ -543,7 +543,7 @@
         <v>2022</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>8080759</v>
@@ -554,7 +554,7 @@
         <v>2022</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C10">
         <v>8664473</v>
@@ -565,7 +565,7 @@
         <v>2022</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C11">
         <v>9838496</v>
@@ -576,7 +576,7 @@
         <v>2022</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>10402976</v>
@@ -587,7 +587,7 @@
         <v>2022</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C13">
         <v>13044332</v>
